--- a/TimeSeriesCausality/data/data2.xlsx
+++ b/TimeSeriesCausality/data/data2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Users\Desktop\大三下\新科研\经济大数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\曹子轩\Desktop\TimeSeriesCausality\TimeSeriesCausality\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C09397-8205-472D-BE24-74AAAF28CEF9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252BA3C5-C1F1-45F0-AB7E-6F4CA4CF298D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="10875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22956" windowHeight="10872" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -295,8 +295,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="179" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -426,16 +426,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -722,18 +722,18 @@
       <selection activeCell="A20" sqref="A20:K133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="115" max="115" width="10.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="116" max="117" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="10.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="10.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="10.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="116" max="117" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="10.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="10.6640625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:121" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>3.4499999999999999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:121" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:121" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:121" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>20.75</v>
       </c>
     </row>
-    <row r="6" spans="1:121" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:121" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>-2.0199999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:121" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>108.685</v>
       </c>
     </row>
-    <row r="10" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>94.564999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:121" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4486,17 +4486,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:121" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:121" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:121" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>17</v>
       </c>
@@ -4535,7 +4535,7 @@
       <c r="DO20"/>
       <c r="DQ20"/>
     </row>
-    <row r="21" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -4574,7 +4574,7 @@
       <c r="DO21"/>
       <c r="DQ21"/>
     </row>
-    <row r="22" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -4613,7 +4613,7 @@
       <c r="DO22"/>
       <c r="DQ22"/>
     </row>
-    <row r="23" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -4652,7 +4652,7 @@
       <c r="DO23"/>
       <c r="DQ23"/>
     </row>
-    <row r="24" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -4691,7 +4691,7 @@
       <c r="DO24"/>
       <c r="DQ24"/>
     </row>
-    <row r="25" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -4730,7 +4730,7 @@
       <c r="DO25"/>
       <c r="DQ25"/>
     </row>
-    <row r="26" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6</v>
       </c>
@@ -4769,7 +4769,7 @@
       <c r="DO26"/>
       <c r="DQ26"/>
     </row>
-    <row r="27" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7</v>
       </c>
@@ -4808,7 +4808,7 @@
       <c r="DO27"/>
       <c r="DQ27"/>
     </row>
-    <row r="28" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8</v>
       </c>
@@ -4847,7 +4847,7 @@
       <c r="DO28"/>
       <c r="DQ28"/>
     </row>
-    <row r="29" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>9</v>
       </c>
@@ -4886,7 +4886,7 @@
       <c r="DO29"/>
       <c r="DQ29"/>
     </row>
-    <row r="30" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10</v>
       </c>
@@ -4925,7 +4925,7 @@
       <c r="DO30"/>
       <c r="DQ30"/>
     </row>
-    <row r="31" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>11</v>
       </c>
@@ -4964,7 +4964,7 @@
       <c r="DO31"/>
       <c r="DQ31"/>
     </row>
-    <row r="32" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>12</v>
       </c>
@@ -5003,7 +5003,7 @@
       <c r="DO32"/>
       <c r="DQ32"/>
     </row>
-    <row r="33" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>13</v>
       </c>
@@ -5042,7 +5042,7 @@
       <c r="DO33"/>
       <c r="DQ33"/>
     </row>
-    <row r="34" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>14</v>
       </c>
@@ -5081,7 +5081,7 @@
       <c r="DO34"/>
       <c r="DQ34"/>
     </row>
-    <row r="35" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>15</v>
       </c>
@@ -5120,7 +5120,7 @@
       <c r="DO35"/>
       <c r="DQ35"/>
     </row>
-    <row r="36" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>16</v>
       </c>
@@ -5159,7 +5159,7 @@
       <c r="DO36"/>
       <c r="DQ36"/>
     </row>
-    <row r="37" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>17</v>
       </c>
@@ -5198,7 +5198,7 @@
       <c r="DO37"/>
       <c r="DQ37"/>
     </row>
-    <row r="38" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>18</v>
       </c>
@@ -5237,7 +5237,7 @@
       <c r="DO38"/>
       <c r="DQ38"/>
     </row>
-    <row r="39" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>19</v>
       </c>
@@ -5276,7 +5276,7 @@
       <c r="DO39"/>
       <c r="DQ39"/>
     </row>
-    <row r="40" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>20</v>
       </c>
@@ -5315,7 +5315,7 @@
       <c r="DO40"/>
       <c r="DQ40"/>
     </row>
-    <row r="41" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>21</v>
       </c>
@@ -5354,7 +5354,7 @@
       <c r="DO41"/>
       <c r="DQ41"/>
     </row>
-    <row r="42" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>22</v>
       </c>
@@ -5393,7 +5393,7 @@
       <c r="DO42"/>
       <c r="DQ42"/>
     </row>
-    <row r="43" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>23</v>
       </c>
@@ -5432,7 +5432,7 @@
       <c r="DO43"/>
       <c r="DQ43"/>
     </row>
-    <row r="44" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>24</v>
       </c>
@@ -5471,7 +5471,7 @@
       <c r="DO44"/>
       <c r="DQ44"/>
     </row>
-    <row r="45" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>25</v>
       </c>
@@ -5510,7 +5510,7 @@
       <c r="DO45"/>
       <c r="DQ45"/>
     </row>
-    <row r="46" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>26</v>
       </c>
@@ -5549,7 +5549,7 @@
       <c r="DO46"/>
       <c r="DQ46"/>
     </row>
-    <row r="47" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>27</v>
       </c>
@@ -5588,7 +5588,7 @@
       <c r="DO47"/>
       <c r="DQ47"/>
     </row>
-    <row r="48" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>28</v>
       </c>
@@ -5627,7 +5627,7 @@
       <c r="DO48"/>
       <c r="DQ48"/>
     </row>
-    <row r="49" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>29</v>
       </c>
@@ -5666,7 +5666,7 @@
       <c r="DO49"/>
       <c r="DQ49"/>
     </row>
-    <row r="50" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>30</v>
       </c>
@@ -5705,7 +5705,7 @@
       <c r="DO50"/>
       <c r="DQ50"/>
     </row>
-    <row r="51" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>31</v>
       </c>
@@ -5744,7 +5744,7 @@
       <c r="DO51"/>
       <c r="DQ51"/>
     </row>
-    <row r="52" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>32</v>
       </c>
@@ -5783,7 +5783,7 @@
       <c r="DO52"/>
       <c r="DQ52"/>
     </row>
-    <row r="53" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>33</v>
       </c>
@@ -5822,7 +5822,7 @@
       <c r="DO53"/>
       <c r="DQ53"/>
     </row>
-    <row r="54" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>34</v>
       </c>
@@ -5861,7 +5861,7 @@
       <c r="DO54"/>
       <c r="DQ54"/>
     </row>
-    <row r="55" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>35</v>
       </c>
@@ -5900,7 +5900,7 @@
       <c r="DO55"/>
       <c r="DQ55"/>
     </row>
-    <row r="56" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>36</v>
       </c>
@@ -5939,7 +5939,7 @@
       <c r="DO56"/>
       <c r="DQ56"/>
     </row>
-    <row r="57" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>37</v>
       </c>
@@ -5978,7 +5978,7 @@
       <c r="DO57"/>
       <c r="DQ57"/>
     </row>
-    <row r="58" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>38</v>
       </c>
@@ -6017,7 +6017,7 @@
       <c r="DO58"/>
       <c r="DQ58"/>
     </row>
-    <row r="59" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>39</v>
       </c>
@@ -6056,7 +6056,7 @@
       <c r="DO59"/>
       <c r="DQ59"/>
     </row>
-    <row r="60" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>40</v>
       </c>
@@ -6095,7 +6095,7 @@
       <c r="DO60"/>
       <c r="DQ60"/>
     </row>
-    <row r="61" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>41</v>
       </c>
@@ -6134,7 +6134,7 @@
       <c r="DO61"/>
       <c r="DQ61"/>
     </row>
-    <row r="62" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>42</v>
       </c>
@@ -6173,7 +6173,7 @@
       <c r="DO62"/>
       <c r="DQ62"/>
     </row>
-    <row r="63" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>43</v>
       </c>
@@ -6212,7 +6212,7 @@
       <c r="DO63"/>
       <c r="DQ63"/>
     </row>
-    <row r="64" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>44</v>
       </c>
@@ -6251,7 +6251,7 @@
       <c r="DO64"/>
       <c r="DQ64"/>
     </row>
-    <row r="65" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>45</v>
       </c>
@@ -6290,7 +6290,7 @@
       <c r="DO65"/>
       <c r="DQ65"/>
     </row>
-    <row r="66" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>46</v>
       </c>
@@ -6329,7 +6329,7 @@
       <c r="DO66"/>
       <c r="DQ66"/>
     </row>
-    <row r="67" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>47</v>
       </c>
@@ -6368,7 +6368,7 @@
       <c r="DO67"/>
       <c r="DQ67"/>
     </row>
-    <row r="68" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>48</v>
       </c>
@@ -6407,7 +6407,7 @@
       <c r="DO68"/>
       <c r="DQ68"/>
     </row>
-    <row r="69" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>49</v>
       </c>
@@ -6446,7 +6446,7 @@
       <c r="DO69"/>
       <c r="DQ69"/>
     </row>
-    <row r="70" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>50</v>
       </c>
@@ -6485,7 +6485,7 @@
       <c r="DO70"/>
       <c r="DQ70"/>
     </row>
-    <row r="71" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>51</v>
       </c>
@@ -6524,7 +6524,7 @@
       <c r="DO71"/>
       <c r="DQ71"/>
     </row>
-    <row r="72" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>52</v>
       </c>
@@ -6563,7 +6563,7 @@
       <c r="DO72"/>
       <c r="DQ72"/>
     </row>
-    <row r="73" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>53</v>
       </c>
@@ -6602,7 +6602,7 @@
       <c r="DO73"/>
       <c r="DQ73"/>
     </row>
-    <row r="74" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>54</v>
       </c>
@@ -6641,7 +6641,7 @@
       <c r="DO74"/>
       <c r="DQ74"/>
     </row>
-    <row r="75" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>55</v>
       </c>
@@ -6680,7 +6680,7 @@
       <c r="DO75"/>
       <c r="DQ75"/>
     </row>
-    <row r="76" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>56</v>
       </c>
@@ -6719,7 +6719,7 @@
       <c r="DO76"/>
       <c r="DQ76"/>
     </row>
-    <row r="77" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>57</v>
       </c>
@@ -6758,7 +6758,7 @@
       <c r="DO77"/>
       <c r="DQ77"/>
     </row>
-    <row r="78" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>58</v>
       </c>
@@ -6797,7 +6797,7 @@
       <c r="DO78"/>
       <c r="DQ78"/>
     </row>
-    <row r="79" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>59</v>
       </c>
@@ -6836,7 +6836,7 @@
       <c r="DO79"/>
       <c r="DQ79"/>
     </row>
-    <row r="80" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>60</v>
       </c>
@@ -6875,7 +6875,7 @@
       <c r="DO80"/>
       <c r="DQ80"/>
     </row>
-    <row r="81" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>61</v>
       </c>
@@ -6914,7 +6914,7 @@
       <c r="DO81"/>
       <c r="DQ81"/>
     </row>
-    <row r="82" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>62</v>
       </c>
@@ -6953,7 +6953,7 @@
       <c r="DO82"/>
       <c r="DQ82"/>
     </row>
-    <row r="83" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>63</v>
       </c>
@@ -6992,7 +6992,7 @@
       <c r="DO83"/>
       <c r="DQ83"/>
     </row>
-    <row r="84" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>64</v>
       </c>
@@ -7031,7 +7031,7 @@
       <c r="DO84"/>
       <c r="DQ84"/>
     </row>
-    <row r="85" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>65</v>
       </c>
@@ -7070,7 +7070,7 @@
       <c r="DO85"/>
       <c r="DQ85"/>
     </row>
-    <row r="86" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>66</v>
       </c>
@@ -7109,7 +7109,7 @@
       <c r="DO86"/>
       <c r="DQ86"/>
     </row>
-    <row r="87" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>67</v>
       </c>
@@ -7148,7 +7148,7 @@
       <c r="DO87"/>
       <c r="DQ87"/>
     </row>
-    <row r="88" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>68</v>
       </c>
@@ -7187,7 +7187,7 @@
       <c r="DO88"/>
       <c r="DQ88"/>
     </row>
-    <row r="89" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>69</v>
       </c>
@@ -7226,7 +7226,7 @@
       <c r="DO89"/>
       <c r="DQ89"/>
     </row>
-    <row r="90" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>70</v>
       </c>
@@ -7265,7 +7265,7 @@
       <c r="DO90"/>
       <c r="DQ90"/>
     </row>
-    <row r="91" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>71</v>
       </c>
@@ -7304,7 +7304,7 @@
       <c r="DO91"/>
       <c r="DQ91"/>
     </row>
-    <row r="92" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>72</v>
       </c>
@@ -7343,7 +7343,7 @@
       <c r="DO92"/>
       <c r="DQ92"/>
     </row>
-    <row r="93" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>73</v>
       </c>
@@ -7382,7 +7382,7 @@
       <c r="DO93"/>
       <c r="DQ93"/>
     </row>
-    <row r="94" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>74</v>
       </c>
@@ -7421,7 +7421,7 @@
       <c r="DO94"/>
       <c r="DQ94"/>
     </row>
-    <row r="95" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>75</v>
       </c>
@@ -7460,7 +7460,7 @@
       <c r="DO95"/>
       <c r="DQ95"/>
     </row>
-    <row r="96" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>76</v>
       </c>
@@ -7499,7 +7499,7 @@
       <c r="DO96"/>
       <c r="DQ96"/>
     </row>
-    <row r="97" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>77</v>
       </c>
@@ -7538,7 +7538,7 @@
       <c r="DO97"/>
       <c r="DQ97"/>
     </row>
-    <row r="98" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>78</v>
       </c>
@@ -7577,7 +7577,7 @@
       <c r="DO98"/>
       <c r="DQ98"/>
     </row>
-    <row r="99" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>79</v>
       </c>
@@ -7616,7 +7616,7 @@
       <c r="DO99"/>
       <c r="DQ99"/>
     </row>
-    <row r="100" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>80</v>
       </c>
@@ -7655,7 +7655,7 @@
       <c r="DO100"/>
       <c r="DQ100"/>
     </row>
-    <row r="101" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>81</v>
       </c>
@@ -7694,7 +7694,7 @@
       <c r="DO101"/>
       <c r="DQ101"/>
     </row>
-    <row r="102" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>82</v>
       </c>
@@ -7733,7 +7733,7 @@
       <c r="DO102"/>
       <c r="DQ102"/>
     </row>
-    <row r="103" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>83</v>
       </c>
@@ -7772,7 +7772,7 @@
       <c r="DO103"/>
       <c r="DQ103"/>
     </row>
-    <row r="104" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>84</v>
       </c>
@@ -7811,7 +7811,7 @@
       <c r="DO104"/>
       <c r="DQ104"/>
     </row>
-    <row r="105" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>85</v>
       </c>
@@ -7850,7 +7850,7 @@
       <c r="DO105"/>
       <c r="DQ105"/>
     </row>
-    <row r="106" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>86</v>
       </c>
@@ -7889,7 +7889,7 @@
       <c r="DO106"/>
       <c r="DQ106"/>
     </row>
-    <row r="107" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>87</v>
       </c>
@@ -7928,7 +7928,7 @@
       <c r="DO107"/>
       <c r="DQ107"/>
     </row>
-    <row r="108" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>88</v>
       </c>
@@ -7967,7 +7967,7 @@
       <c r="DO108"/>
       <c r="DQ108"/>
     </row>
-    <row r="109" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>89</v>
       </c>
@@ -8006,7 +8006,7 @@
       <c r="DO109"/>
       <c r="DQ109"/>
     </row>
-    <row r="110" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>90</v>
       </c>
@@ -8045,7 +8045,7 @@
       <c r="DO110"/>
       <c r="DQ110"/>
     </row>
-    <row r="111" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>91</v>
       </c>
@@ -8084,7 +8084,7 @@
       <c r="DO111"/>
       <c r="DQ111"/>
     </row>
-    <row r="112" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>92</v>
       </c>
@@ -8123,7 +8123,7 @@
       <c r="DO112"/>
       <c r="DQ112"/>
     </row>
-    <row r="113" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>93</v>
       </c>
@@ -8162,7 +8162,7 @@
       <c r="DO113"/>
       <c r="DQ113"/>
     </row>
-    <row r="114" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>94</v>
       </c>
@@ -8201,7 +8201,7 @@
       <c r="DO114"/>
       <c r="DQ114"/>
     </row>
-    <row r="115" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>95</v>
       </c>
@@ -8240,7 +8240,7 @@
       <c r="DO115"/>
       <c r="DQ115"/>
     </row>
-    <row r="116" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>96</v>
       </c>
@@ -8279,7 +8279,7 @@
       <c r="DO116"/>
       <c r="DQ116"/>
     </row>
-    <row r="117" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>97</v>
       </c>
@@ -8318,7 +8318,7 @@
       <c r="DO117"/>
       <c r="DQ117"/>
     </row>
-    <row r="118" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>98</v>
       </c>
@@ -8357,7 +8357,7 @@
       <c r="DO118"/>
       <c r="DQ118"/>
     </row>
-    <row r="119" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>99</v>
       </c>
@@ -8396,7 +8396,7 @@
       <c r="DO119"/>
       <c r="DQ119"/>
     </row>
-    <row r="120" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>100</v>
       </c>
@@ -8435,7 +8435,7 @@
       <c r="DO120"/>
       <c r="DQ120"/>
     </row>
-    <row r="121" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>101</v>
       </c>
@@ -8474,7 +8474,7 @@
       <c r="DO121"/>
       <c r="DQ121"/>
     </row>
-    <row r="122" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>102</v>
       </c>
@@ -8513,7 +8513,7 @@
       <c r="DO122"/>
       <c r="DQ122"/>
     </row>
-    <row r="123" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>103</v>
       </c>
@@ -8552,7 +8552,7 @@
       <c r="DO123"/>
       <c r="DQ123"/>
     </row>
-    <row r="124" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>104</v>
       </c>
@@ -8591,7 +8591,7 @@
       <c r="DO124"/>
       <c r="DQ124"/>
     </row>
-    <row r="125" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>105</v>
       </c>
@@ -8630,7 +8630,7 @@
       <c r="DO125"/>
       <c r="DQ125"/>
     </row>
-    <row r="126" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>106</v>
       </c>
@@ -8669,7 +8669,7 @@
       <c r="DO126"/>
       <c r="DQ126"/>
     </row>
-    <row r="127" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>107</v>
       </c>
@@ -8708,7 +8708,7 @@
       <c r="DO127"/>
       <c r="DQ127"/>
     </row>
-    <row r="128" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>108</v>
       </c>
@@ -8747,7 +8747,7 @@
       <c r="DO128"/>
       <c r="DQ128"/>
     </row>
-    <row r="129" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>109</v>
       </c>
@@ -8786,7 +8786,7 @@
       <c r="DO129"/>
       <c r="DQ129"/>
     </row>
-    <row r="130" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>110</v>
       </c>
@@ -8825,7 +8825,7 @@
       <c r="DO130"/>
       <c r="DQ130"/>
     </row>
-    <row r="131" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>111</v>
       </c>
@@ -8864,7 +8864,7 @@
       <c r="DO131"/>
       <c r="DQ131"/>
     </row>
-    <row r="132" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>112</v>
       </c>
@@ -8903,7 +8903,7 @@
       <c r="DO132"/>
       <c r="DQ132"/>
     </row>
-    <row r="133" spans="1:121" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>113</v>
       </c>
@@ -8957,9 +8957,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -8997,14 +8997,14 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>50</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>51</v>
       </c>
@@ -9228,7 +9228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>52</v>
       </c>
@@ -9262,16 +9262,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F131FF-0ADB-4656-A7B1-C9C8DC92ACCD}">
   <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
@@ -9306,7 +9308,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -9341,7 +9343,7 @@
         <v>-6.2814672740350019E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -9376,7 +9378,7 @@
         <v>0.22640061396776656</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -9411,7 +9413,7 @@
         <v>3.5669586983729573E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -9446,7 +9448,7 @@
         <v>0.1889224572004029</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -9481,7 +9483,7 @@
         <v>0.17973911570387946</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -9516,7 +9518,7 @@
         <v>-7.8834003446295209E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -9551,7 +9553,7 @@
         <v>0.10756040530007782</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -9586,7 +9588,7 @@
         <v>-2.3082336382828972E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -9621,7 +9623,7 @@
         <v>9.090909090909105E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -9656,7 +9658,7 @@
         <v>2.9978869519281526E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -9691,7 +9693,7 @@
         <v>-4.5133991537376517E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -9726,7 +9728,7 @@
         <v>5.1832952866926352E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -9761,7 +9763,7 @@
         <v>-2.476701136218562E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -9796,7 +9798,7 @@
         <v>6.2966356852991234E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -9831,7 +9833,7 @@
         <v>3.8054187192118283E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -9866,7 +9868,7 @@
         <v>-0.12516312729861201</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -9901,7 +9903,7 @@
         <v>2.1697857336588022E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -9936,7 +9938,7 @@
         <v>1.3007698433766812E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -9971,7 +9973,7 @@
         <v>3.6687631027254586E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -10006,7 +10008,7 @@
         <v>-1.7754569190600478E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -10041,7 +10043,7 @@
         <v>8.8383838383838453E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -10076,7 +10078,7 @@
         <v>2.881914763707405E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -10111,7 +10113,7 @@
         <v>5.8160237388724001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -10146,7 +10148,7 @@
         <v>2.2434099831736276E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -10181,7 +10183,7 @@
         <v>-6.6165750813054203E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -10216,7 +10218,7 @@
         <v>0.16121020546398745</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
@@ -10251,7 +10253,7 @@
         <v>6.4845420960528921E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
@@ -10286,7 +10288,7 @@
         <v>-7.879119875833096E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -10321,7 +10323,7 @@
         <v>-4.5986124876114975E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
@@ -10356,7 +10358,7 @@
         <v>1.0804072304176016E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
@@ -10391,7 +10393,7 @@
         <v>-0.11274409044193212</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
@@ -10426,7 +10428,7 @@
         <v>-9.3826016448511629E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
@@ -10461,7 +10463,7 @@
         <v>9.3545369504208775E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
@@ -10496,7 +10498,7 @@
         <v>0.12557924003707144</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
@@ -10531,7 +10533,7 @@
         <v>1.4409221902017322E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
@@ -10566,7 +10568,7 @@
         <v>1.7349837662337553E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
@@ -10601,7 +10603,7 @@
         <v>1.9248030318141041E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
@@ -10636,7 +10638,7 @@
         <v>3.8747553816046887E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
@@ -10671,7 +10673,7 @@
         <v>-2.6752072343632305E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41</v>
       </c>
@@ -10706,7 +10708,7 @@
         <v>-8.3817266744095953E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
@@ -10741,7 +10743,7 @@
         <v>-0.13057257553348822</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
@@ -10776,7 +10778,7 @@
         <v>6.8043742405832441E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
@@ -10811,7 +10813,7 @@
         <v>7.0875995449374063E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
@@ -10846,7 +10848,7 @@
         <v>4.0369701476681286E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
@@ -10881,7 +10883,7 @@
         <v>-5.3116072373293965E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
@@ -10916,7 +10918,7 @@
         <v>-3.3076321376690032E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
       </c>
@@ -10951,7 +10953,7 @@
         <v>1.5370391771639902E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
@@ -10986,7 +10988,7 @@
         <v>7.8534031413612704E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
@@ -11021,7 +11023,7 @@
         <v>5.8041367665682131E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>51</v>
       </c>
@@ -11056,7 +11058,7 @@
         <v>-2.4866225999370495E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>52</v>
       </c>
@@ -11091,7 +11093,7 @@
         <v>-9.8988594792339679E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
@@ -11126,7 +11128,7 @@
         <v>2.7059334927189926E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
@@ -11161,7 +11163,7 @@
         <v>1.3331922547878516E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
@@ -11196,7 +11198,7 @@
         <v>9.2930980474052571E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
@@ -11231,7 +11233,7 @@
         <v>1.8152288143689521E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
@@ -11266,7 +11268,7 @@
         <v>-2.6273810640892181E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
@@ -11286,7 +11288,7 @@
         <v>198.29999999999998</v>
       </c>
       <c r="G58" s="12">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="H58" s="15">
         <v>-0.44600000000000001</v>
@@ -11301,7 +11303,7 @@
         <v>-5.4097281023614663E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>59</v>
       </c>
@@ -11336,7 +11338,7 @@
         <v>-6.6441217425900256E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>60</v>
       </c>
@@ -11371,7 +11373,7 @@
         <v>4.0166204986149534E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>61</v>
       </c>
@@ -11406,7 +11408,7 @@
         <v>-3.0830687288743164E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>62</v>
       </c>
@@ -11441,7 +11443,7 @@
         <v>6.5525258930458463E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>63</v>
       </c>
@@ -11476,7 +11478,7 @@
         <v>-1.9837333862327E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>64</v>
       </c>
@@ -11511,7 +11513,7 @@
         <v>1.2599206349206415E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>65</v>
       </c>
@@ -11546,7 +11548,7 @@
         <v>1.0776917801509356E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>66</v>
       </c>
@@ -11581,7 +11583,7 @@
         <v>3.5329810138970519E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>67</v>
       </c>
@@ -11616,7 +11618,7 @@
         <v>-2.0795916438226647E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>68</v>
       </c>
@@ -11651,7 +11653,7 @@
         <v>-6.8056762235736978E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>69</v>
       </c>
@@ -11686,7 +11688,7 @@
         <v>-3.4493474207582531E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>70</v>
       </c>
@@ -11721,7 +11723,7 @@
         <v>-9.451775560562159E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>71</v>
       </c>
@@ -11756,7 +11758,7 @@
         <v>-0.10201421800947863</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>72</v>
       </c>
@@ -11791,7 +11793,7 @@
         <v>-0.21770682148040643</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>73</v>
       </c>
@@ -11826,7 +11828,7 @@
         <v>-0.20357564513408666</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>74</v>
       </c>
@@ -11861,7 +11863,7 @@
         <v>7.1156289707750897E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>75</v>
       </c>
@@ -11896,7 +11898,7 @@
         <v>-5.4567022538552723E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>76</v>
       </c>
@@ -11931,7 +11933,7 @@
         <v>0.1386449184441656</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>77</v>
       </c>
@@ -11966,7 +11968,7 @@
         <v>8.8521579430670405E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>78</v>
       </c>
@@ -12001,7 +12003,7 @@
         <v>9.2795680782857826E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>79</v>
       </c>
@@ -12036,7 +12038,7 @@
         <v>-0.14911400869274494</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
@@ -12071,7 +12073,7 @@
         <v>-0.15776031434184679</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>81</v>
       </c>
@@ -12106,7 +12108,7 @@
         <v>6.0881735479356269E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>82</v>
       </c>
@@ -12141,7 +12143,7 @@
         <v>1.6270888302550635E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>83</v>
       </c>
@@ -12176,7 +12178,7 @@
         <v>-8.1782778018174018E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>84</v>
       </c>
@@ -12211,7 +12213,7 @@
         <v>-0.12370405278039587</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>85</v>
       </c>
@@ -12246,7 +12248,7 @@
         <v>-0.14815810701801557</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>86</v>
       </c>
@@ -12281,7 +12283,7 @@
         <v>-4.2929292929292928E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>87</v>
       </c>
@@ -12316,7 +12318,7 @@
         <v>0.23845646437994716</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>88</v>
       </c>
@@ -12351,7 +12353,7 @@
         <v>8.5219707057257121E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>89</v>
       </c>
@@ -12386,7 +12388,7 @@
         <v>0.14625766871165635</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>90</v>
       </c>
@@ -12421,7 +12423,7 @@
         <v>4.3887818454292349E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>91</v>
       </c>
@@ -12456,7 +12458,7 @@
         <v>-8.4290401968826867E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>92</v>
       </c>
@@ -12491,7 +12493,7 @@
         <v>1.5677491601344684E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>93</v>
       </c>
@@ -12526,7 +12528,7 @@
         <v>1.0286225402504456E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>94</v>
       </c>
@@ -12561,7 +12563,7 @@
         <v>0.10181496237273135</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>95</v>
       </c>
@@ -12596,7 +12598,7 @@
         <v>-8.2764162314182488E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>96</v>
       </c>
@@ -12631,7 +12633,7 @@
         <v>0.13819535698642138</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>97</v>
       </c>
@@ -12666,7 +12668,7 @@
         <v>1.0198191264190859E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>98</v>
       </c>
@@ -12701,7 +12703,7 @@
         <v>1.8476190476190535E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>99</v>
       </c>
@@ -12736,7 +12738,7 @@
         <v>-7.7426594351973077E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>100</v>
       </c>
@@ -12771,7 +12773,7 @@
         <v>3.5069937157916176E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>101</v>
       </c>
@@ -12806,7 +12808,7 @@
         <v>-5.0528789659224582E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>102</v>
       </c>
@@ -12841,7 +12843,7 @@
         <v>-6.8069306930693019E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>103</v>
       </c>
@@ -12876,7 +12878,7 @@
         <v>3.2093846834882811E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>104</v>
       </c>
@@ -12911,7 +12913,7 @@
         <v>3.0238044177568035E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>105</v>
       </c>
@@ -12946,7 +12948,7 @@
         <v>3.7052456286428059E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>106</v>
       </c>
@@ -12981,7 +12983,7 @@
         <v>3.5327177840224877E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>107</v>
       </c>
@@ -13016,7 +13018,7 @@
         <v>9.8100038774718845E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>108</v>
       </c>
@@ -13051,7 +13053,7 @@
         <v>2.1892655367231617E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>109</v>
       </c>
@@ -13086,7 +13088,7 @@
         <v>0.10055286800276431</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>110</v>
       </c>
@@ -13121,7 +13123,7 @@
         <v>-2.3076923076923217E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>111</v>
       </c>
@@ -13156,7 +13158,7 @@
         <v>8.0347099469708638E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>112</v>
       </c>
@@ -13191,7 +13193,7 @@
         <v>5.6113502311493813E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>113</v>
       </c>
@@ -13226,7 +13228,7 @@
         <v>5.630188679245296E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>12</v>
       </c>
@@ -13252,7 +13254,7 @@
       </c>
       <c r="G114" s="17">
         <f t="shared" si="0"/>
-        <v>2.5267857142857154E-3</v>
+        <v>1.6428571428571438E-3</v>
       </c>
       <c r="H114" s="17">
         <f t="shared" si="0"/>
@@ -13271,7 +13273,7 @@
         <v>7.9783665905507287E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -13297,7 +13299,7 @@
       </c>
       <c r="G115" s="17">
         <f t="shared" si="1"/>
-        <v>9.4707819686094975E-3</v>
+        <v>2.025979229097548E-3</v>
       </c>
       <c r="H115" s="17">
         <f t="shared" si="1"/>
@@ -13316,7 +13318,7 @@
         <v>8.1776289653119255E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>53</v>
       </c>
@@ -13342,7 +13344,7 @@
       </c>
       <c r="G116" s="17">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H116" s="17">
         <f t="shared" si="2"/>
@@ -13361,7 +13363,7 @@
         <v>0.23845646437994716</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>54</v>
       </c>
@@ -13406,7 +13408,7 @@
         <v>-0.21770682148040643</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>25</v>
       </c>
@@ -13451,7 +13453,7 @@
         <v>-4.4582816885355619E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>55</v>
       </c>
@@ -13496,7 +13498,7 @@
         <v>1.1701639326691216E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>75</v>
       </c>
